--- a/Homework_Neuroinformatic/Assignment 3/RMSE_table.xlsx
+++ b/Homework_Neuroinformatic/Assignment 3/RMSE_table.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_000\Desktop\Cognitive Computing\ANN\Homework\IANN_group30_Git\IANN_group30\Homework_Neuroinformatic\Assignment 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7febc520ade5fca9/Master_Cognitive_Computing/1_Semester/repo_group_30/Homework_Neuroinformatic/Assignment 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E5CA2B-AB9C-4543-AACC-E86638106FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C5E5CA2B-AB9C-4543-AACC-E86638106FE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{17B0B05E-F133-4AA8-A29C-AAE9E46CFD08}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6513F088-BBD4-429E-AB69-7791F8CBE553}"/>
+    <workbookView xWindow="-35198" yWindow="-4822" windowWidth="22695" windowHeight="14595" xr2:uid="{6513F088-BBD4-429E-AB69-7791F8CBE553}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -80,7 +89,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -578,7 +587,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3065,6 +3073,844 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1CA9-4F41-8046-1E27491D241D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="504004896"/>
+        <c:axId val="504011128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="504004896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504011128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="504011128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504004896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73169084861693556"/>
+          <c:y val="0.61496045317567627"/>
+          <c:w val="0.21221235032012312"/>
+          <c:h val="9.2047332467279974E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800"/>
+              <a:t>RMSE - spread correlation </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6602618890269933E-2"/>
+          <c:y val="0.16650953984287317"/>
+          <c:w val="0.88940165485268785"/>
+          <c:h val="0.71584718576844564"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE = 1,93</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28405627598066491"/>
+                  <c:y val="-0.10390731461597603"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5381-4836-92B6-EAE56EAB0054}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3593,6 +4439,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5142,6 +6028,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5804,6 +7206,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>252132</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>18770</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38661</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10791672-FB33-4669-B8EA-F43A2B70CAE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6111,8 +7551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C9C893-465A-4ACB-8ECF-4B9C4F32456C}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="Q20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6133,7 +7573,7 @@
       </c>
       <c r="F1">
         <f ca="1">RANDBETWEEN(-35,35)/10</f>
-        <v>-1.6</v>
+        <v>2.9</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
